--- a/src/main/resources/excel/template/monthlyCheck.xlsx
+++ b/src/main/resources/excel/template/monthlyCheck.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipseWorkspace\process\src\main\resources\excel\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,57 +19,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>有无调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整前情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整后情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接受益人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接受益人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审会议次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出文档个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码走读次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有无调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整前情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整后情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊情况说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目基本情况</t>
+    <t>项目执行情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +154,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,82 +459,81 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
